--- a/docs/assets/disciplinas/LOB1228.xlsx
+++ b/docs/assets/disciplinas/LOB1228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide students with knowledge about environmental management in companies, environmental policies, environmental management systems (EMS) and ISO 14000 series standards, enabling them to participate in the planning and implementation of an EMS in a company.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -91,13 +94,19 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Environmental Management Systems; Iso 14000; Environmental Audit.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>Evolução das práticas de gestão ambiental empresarial; Normas (série ISO 14.000) e certificações ambientais; Produção mais limpa; Ferramentas de gestão ambiental focadas no produto: análise do ciclo de vida, ecodesign e rotulagem ambiental; Implantação do sistema de gerenciamento ambiental (SGA); inovação e sustentabilidade; otimização do ciclo de vida</t>
+    <t>Evolução das práticas de gestão ambiental empresarial;- Economia circular, conceitos e aplicações;- Responsabilidade social corporativa: conceito e programa;- Implantação do sistema de gerenciamento ambiental (SGA): conceitos e modelos;- Produção mais limpa;- Ferramentas de gestão focadas no produto;- Análise e otimização do ciclo de vida do produto;- Ecoinovação e Ecodesign;- Rotulagem ambiental;- Inovação e sustentabilidade;- Normas ISO 14001 (série ISO 14000), requisitos e orientações para uso e Certificações ambientais.</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Evolution of corporate environmental management practices;- Circular economy, concepts and applications;- Corporate social responsibility: concept and program;- Implementation of the environmental management system (SGA): concepts and models;- Cleaner production;- Management tools focused on the product;- Analysis and optimization of the product life cycle;- Eco-innovation and Ecodesign;- Environmental labeling;- Innovation and sustainability;- ISO 14001 standards (ISO 14000 series), requirements and guidelines for use and Environmental Certifications.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -599,99 +608,117 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1228.xlsx
+++ b/docs/assets/disciplinas/LOB1228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar aos alunos conhecimentos sobre a gestão ambiental nas empresas, políticas ambientais, sistemas de gestão ambiental (SGA) e normas série ISO 14000, capacitando-os a participar do planejamento e implantação de um SGA em uma empresa.</t>
+    <t>5817650 - Érica Leonor Romão</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5817650 - Érica Leonor Romão</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Sistemas de Gestão Ambiental; Iso 14000; Auditoria Ambiental.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Evolução das práticas de gestão ambiental empresarial;- Economia circular, conceitos e aplicações;- Responsabilidade social corporativa: conceito e programa;- Implantação do sistema de gerenciamento ambiental (SGA): conceitos e modelos;- Produção mais limpa;- Ferramentas de gestão focadas no produto;- Análise e otimização do ciclo de vida do produto;- Ecoinovação e Ecodesign;- Rotulagem ambiental;- Inovação e sustentabilidade;- Normas ISO 14001 (série ISO 14000), requisitos e orientações para uso e Certificações ambientais.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>As avaliações serão por meio de trabalhos em equipes ou provas individuais, conforme adequação ao conteúdo programático.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios, trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A nota final será composta pela média obtida da nota do período somada à nota de recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:1.SOUZA, M. P.; Instrumentos de gestão ambiental: fundamentos e prática. Ed. Riani Costa, 2000;2.BARBIERI, J. ; Gestão ambiental empresarial: Conceitos, modelos e instrumentos. Ed. Saraiva, 2016.3.RENOMESI, V.; ISO 14001 guia prático de certificação e manutenção do sistema de gestão ambiental. Ed. Tocalino, 2000;4.MOURA, L. A. A; Qualidade e Gestão Ambiental – Sustentabilidade e ISO 14001, 6° edição, Ed. Del Rey, 2011;5.CALIJURI, M. C.; CUNHA, D. G. F. (Org), Engenharia ambiental: conceitos, tecnologia e gestão. Ed. Capus, 2013;Bibliografia complementar:1.DONAIRE, D.; Gestão ambiental na empresa, 2° edição, Ed. Atlas, 2012;2.DIAS, R.; Gestão ambiental responsabilidade social e sustentabilidade, 2° edição, Ed. Atlas, 2011;</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1228.xlsx
+++ b/docs/assets/disciplinas/LOB1228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar aos alunos conhecimentos sobre a gestão ambiental nas empresas, políticas ambientais, sistemas de gestão ambiental (SGA) e normas série ISO 14000, capacitando-os a participar do planejamento e implantação de um SGA em uma empresa.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide students with knowledge about environmental management in companies, environmental policies, environmental management systems (EMS) and ISO 14000 series standards, enabling them to participate in the planning and implementation of an EMS in a company.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5817650 - Érica Leonor Romão</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide students with knowledge about environmental management in companies, environmental policies, environmental management systems (EMS) and ISO 14000 series standards, enabling them to participate in the planning and implementation of an EMS in a company.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Sistemas de Gestão Ambiental; Iso 14000; Auditoria Ambiental.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Evolução das práticas de gestão ambiental empresarial;- Economia circular, conceitos e aplicações;- Responsabilidade social corporativa: conceito e programa;- Implantação do sistema de gerenciamento ambiental (SGA): conceitos e modelos;- Produção mais limpa;- Ferramentas de gestão focadas no produto;- Análise e otimização do ciclo de vida do produto;- Ecoinovação e Ecodesign;- Rotulagem ambiental;- Inovação e sustentabilidade;- Normas ISO 14001 (série ISO 14000), requisitos e orientações para uso e Certificações ambientais.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>As avaliações serão por meio de trabalhos em equipes ou provas individuais, conforme adequação ao conteúdo programático.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>As avaliações serão por meio de trabalhos em equipes ou provas individuais, conforme adequação ao conteúdo programático.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios, trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios, trabalhos práticos e relatórios.</t>
+    <t>A nota final será composta pela média obtida da nota do período somada à nota de recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A nota final será composta pela média obtida da nota do período somada à nota de recuperação</t>
+    <t>Bibliografia básica:1.SOUZA, M. P.; Instrumentos de gestão ambiental: fundamentos e prática. Ed. Riani Costa, 2000;2.BARBIERI, J. ; Gestão ambiental empresarial: Conceitos, modelos e instrumentos. Ed. Saraiva, 2016.3.RENOMESI, V.; ISO 14001 guia prático de certificação e manutenção do sistema de gestão ambiental. Ed. Tocalino, 2000;4.MOURA, L. A. A; Qualidade e Gestão Ambiental – Sustentabilidade e ISO 14001, 6° edição, Ed. Del Rey, 2011;5.CALIJURI, M. C.; CUNHA, D. G. F. (Org), Engenharia ambiental: conceitos, tecnologia e gestão. Ed. Capus, 2013;Bibliografia complementar:1.DONAIRE, D.; Gestão ambiental na empresa, 2° edição, Ed. Atlas, 2012;2.DIAS, R.; Gestão ambiental responsabilidade social e sustentabilidade, 2° edição, Ed. Atlas, 2011;</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
